--- a/account_book_RPA/1account_book.xlsx
+++ b/account_book_RPA/1account_book.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C5403F-DF1B-4507-AAF2-6FB3535E0C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCABD266-E034-49EA-BBD4-0B9D5843FEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="370">
   <si>
     <t>Date</t>
   </si>
@@ -1119,6 +1119,33 @@
   </si>
   <si>
     <t>최가돈까스</t>
+  </si>
+  <si>
+    <t>6월 13일</t>
+  </si>
+  <si>
+    <t>메이퓨어의원 수내점</t>
+  </si>
+  <si>
+    <t>6월 15일</t>
+  </si>
+  <si>
+    <t>원플레이 수원역</t>
+  </si>
+  <si>
+    <t>6월 18일</t>
+  </si>
+  <si>
+    <t>에스케이플레닛</t>
+  </si>
+  <si>
+    <t>모드빈티크</t>
+  </si>
+  <si>
+    <t>채연 3차 정산</t>
+  </si>
+  <si>
+    <t>메가박스중앙(주)AK플라자지</t>
   </si>
 </sst>
 </file>
@@ -5546,10 +5573,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F8D891-58F5-4A8B-85BF-34143E46E1F3}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5793,7 +5820,7 @@
         <v>10000</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>IF(E13 = "","",C13/E13)</f>
+        <f t="shared" ref="F13:F76" si="0">IF(E13 = "","",C13/E13)</f>
         <v/>
       </c>
     </row>
@@ -5811,7 +5838,7 @@
         <v>188</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f>IF(E14 = "","",C14/E14)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5823,7 +5850,7 @@
         <v>1000</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f>IF(E15 = "","",C15/E15)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5835,11 +5862,11 @@
         <v>2000</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>IF(E16 = "","",C16/E16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>340</v>
       </c>
@@ -5847,11 +5874,11 @@
         <v>2000</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f>IF(E17 = "","",C17/E17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>341</v>
       </c>
@@ -5862,11 +5889,11 @@
         <v>2800</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f>IF(E18 = "","",C18/E18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="B19" t="s">
         <v>343</v>
       </c>
@@ -5877,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <f>IF(E19 = "","",C19/E19)</f>
+        <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
       <c r="G19" t="s">
@@ -5887,7 +5914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>344</v>
       </c>
@@ -5895,16 +5922,16 @@
         <v>160000</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f>IF(E20 = "","",C20/E20)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>345</v>
       </c>
@@ -5921,11 +5948,11 @@
         <v>2</v>
       </c>
       <c r="F21" s="2">
-        <f>IF(E21 = "","",C21/E21)</f>
+        <f t="shared" si="0"/>
         <v>17750</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>348</v>
       </c>
@@ -5933,11 +5960,15 @@
         <v>5000</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f>IF(E22 = "","",C22/E22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L22" s="2">
+        <f>SUM(C2:C101)</f>
+        <v>359166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>349</v>
       </c>
@@ -5948,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="2">
-        <f>IF(E23 = "","",C23/E23)</f>
+        <f t="shared" si="0"/>
         <v>4600</v>
       </c>
       <c r="G23" t="s">
@@ -5958,7 +5989,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>349</v>
       </c>
@@ -5969,7 +6000,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="2">
-        <f>IF(E24 = "","",C24/E24)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="H24" s="6"/>
@@ -5978,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>351</v>
       </c>
@@ -5993,14 +6024,14 @@
         <v>2</v>
       </c>
       <c r="F25" s="2">
-        <f>IF(E25 = "","",C25/E25)</f>
+        <f t="shared" si="0"/>
         <v>8250</v>
       </c>
       <c r="G25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
         <v>352</v>
       </c>
@@ -6012,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <f>IF(E26 = "","",C26/E26)</f>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="G26" t="s">
@@ -6022,7 +6053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="B27" t="s">
         <v>353</v>
       </c>
@@ -6031,7 +6062,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="2" t="str">
-        <f>IF(E27 = "","",C27/E27)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J27" s="2">
@@ -6039,7 +6070,7 @@
         <v>21750</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
         <v>354</v>
       </c>
@@ -6051,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <f>IF(E28 = "","",C28/E28)</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="G28" t="s">
@@ -6060,10 +6091,10 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="B29" t="s">
         <v>355</v>
       </c>
@@ -6071,11 +6102,11 @@
         <v>15700</v>
       </c>
       <c r="F29" s="2" t="str">
-        <f>IF(E29 = "","",C29/E29)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>356</v>
       </c>
@@ -6088,8 +6119,12 @@
       <c r="D30" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>359</v>
       </c>
@@ -6100,30 +6135,559 @@
         <v>26000</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f>IF(E31 = "","",C31/E31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="10:12">
-      <c r="J35" s="2">
-        <f>SUM(C2:C101)</f>
-        <v>130566</v>
-      </c>
-    </row>
-    <row r="42" spans="10:12">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" s="2">
+        <v>86900</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>363</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12900</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>6450</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="B34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="2">
+        <v>23200</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>23200</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="B35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="2">
+        <v>23200</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>365</v>
+      </c>
+      <c r="B36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="B37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>15500</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" t="s">
+        <v>367</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9000</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C40" s="2">
+        <v>11400</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>5700</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="2">
+        <f>SUM(F33:F41)</f>
+        <v>70850</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" t="s">
+        <v>354</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="55" spans="11:11">
+    <row r="43" spans="1:12">
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="F44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="F46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="F48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:11">
+      <c r="F49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:11">
+      <c r="F50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:11">
+      <c r="F51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:11">
+      <c r="F52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:11">
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:11">
+      <c r="F54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:11">
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="58" spans="11:11">
+    <row r="56" spans="6:11">
+      <c r="F56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:11">
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:11">
+      <c r="F58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="K58" s="2"/>
     </row>
-    <row r="72" spans="10:11">
+    <row r="59" spans="6:11">
+      <c r="F59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:11">
+      <c r="F60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:11">
+      <c r="F61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:11">
+      <c r="F62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:11">
+      <c r="F63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:11">
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:11">
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:11">
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:11">
+      <c r="F67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:11">
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:11">
+      <c r="F69" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:11">
+      <c r="F70" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:11">
+      <c r="F71" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:11">
+      <c r="F72" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="6:11">
+      <c r="F73" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:11">
+      <c r="F74" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:11">
+      <c r="F75" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:11">
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:11">
+      <c r="F77" s="2" t="str">
+        <f t="shared" ref="F77:F100" si="1">IF(E77 = "","",C77/E77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:11">
+      <c r="F78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:11">
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:11">
+      <c r="F80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/account_book_RPA/1account_book.xlsx
+++ b/account_book_RPA/1account_book.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCABD266-E034-49EA-BBD4-0B9D5843FEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75EC445-8CD4-4BAA-AD96-8387DECF1B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="376">
   <si>
     <t>Date</t>
   </si>
@@ -1146,6 +1146,24 @@
   </si>
   <si>
     <t>메가박스중앙(주)AK플라자지</t>
+  </si>
+  <si>
+    <t>6월 21일</t>
+  </si>
+  <si>
+    <t>코레일유통주식회사(정자역)</t>
+  </si>
+  <si>
+    <t>슈퍼보바 삼성본점</t>
+  </si>
+  <si>
+    <t>(주)신세계프라퍼티 코엑스</t>
+  </si>
+  <si>
+    <t>투썸플레이스(주) 반포대로점</t>
+  </si>
+  <si>
+    <t>동두천솥뚜껑삼겹살 강남역</t>
   </si>
 </sst>
 </file>
@@ -5575,8 +5593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F8D891-58F5-4A8B-85BF-34143E46E1F3}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5820,7 +5838,7 @@
         <v>10000</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f t="shared" ref="F13:F76" si="0">IF(E13 = "","",C13/E13)</f>
+        <f>IF(E13 = "","",C13/E13)</f>
         <v/>
       </c>
     </row>
@@ -5838,7 +5856,7 @@
         <v>188</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E14 = "","",C14/E14)</f>
         <v/>
       </c>
     </row>
@@ -5850,7 +5868,7 @@
         <v>1000</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E15 = "","",C15/E15)</f>
         <v/>
       </c>
     </row>
@@ -5862,7 +5880,7 @@
         <v>2000</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E16 = "","",C16/E16)</f>
         <v/>
       </c>
     </row>
@@ -5874,7 +5892,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E17 = "","",C17/E17)</f>
         <v/>
       </c>
     </row>
@@ -5889,7 +5907,7 @@
         <v>2800</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E18 = "","",C18/E18)</f>
         <v/>
       </c>
     </row>
@@ -5904,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E19 = "","",C19/E19)</f>
         <v>-20000</v>
       </c>
       <c r="G19" t="s">
@@ -5922,7 +5940,7 @@
         <v>160000</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E20 = "","",C20/E20)</f>
         <v/>
       </c>
       <c r="H20" s="6"/>
@@ -5948,7 +5966,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E21 = "","",C21/E21)</f>
         <v>17750</v>
       </c>
     </row>
@@ -5960,12 +5978,12 @@
         <v>5000</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E22 = "","",C22/E22)</f>
         <v/>
       </c>
       <c r="L22" s="2">
         <f>SUM(C2:C101)</f>
-        <v>359166</v>
+        <v>441666</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5979,7 +5997,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E23 = "","",C23/E23)</f>
         <v>4600</v>
       </c>
       <c r="G23" t="s">
@@ -6000,7 +6018,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E24 = "","",C24/E24)</f>
         <v>10000</v>
       </c>
       <c r="H24" s="6"/>
@@ -6024,7 +6042,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E25 = "","",C25/E25)</f>
         <v>8250</v>
       </c>
       <c r="G25" t="s">
@@ -6043,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E26 = "","",C26/E26)</f>
         <v>12000</v>
       </c>
       <c r="G26" t="s">
@@ -6062,7 +6080,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E27 = "","",C27/E27)</f>
         <v/>
       </c>
       <c r="J27" s="2">
@@ -6082,7 +6100,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E28 = "","",C28/E28)</f>
         <v>1500</v>
       </c>
       <c r="G28" t="s">
@@ -6102,7 +6120,7 @@
         <v>15700</v>
       </c>
       <c r="F29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E29 = "","",C29/E29)</f>
         <v/>
       </c>
     </row>
@@ -6120,7 +6138,7 @@
         <v>358</v>
       </c>
       <c r="F30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E30 = "","",C30/E30)</f>
         <v/>
       </c>
     </row>
@@ -6135,7 +6153,7 @@
         <v>26000</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E31 = "","",C31/E31)</f>
         <v/>
       </c>
     </row>
@@ -6150,7 +6168,7 @@
         <v>86900</v>
       </c>
       <c r="F32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E32 = "","",C32/E32)</f>
         <v/>
       </c>
     </row>
@@ -6168,7 +6186,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E33 = "","",C33/E33)</f>
         <v>6450</v>
       </c>
       <c r="G33" t="s">
@@ -6186,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E34 = "","",C34/E34)</f>
         <v>23200</v>
       </c>
       <c r="G34" t="s">
@@ -6201,7 +6219,7 @@
         <v>23200</v>
       </c>
       <c r="F35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E35 = "","",C35/E35)</f>
         <v/>
       </c>
     </row>
@@ -6219,7 +6237,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E36 = "","",C36/E36)</f>
         <v>10000</v>
       </c>
       <c r="G36" t="s">
@@ -6237,7 +6255,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E37 = "","",C37/E37)</f>
         <v>15500</v>
       </c>
       <c r="G37" t="s">
@@ -6255,7 +6273,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E38 = "","",C38/E38)</f>
         <v>3000</v>
       </c>
       <c r="G38" t="s">
@@ -6273,7 +6291,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E39 = "","",C39/E39)</f>
         <v>4500</v>
       </c>
       <c r="G39" t="s">
@@ -6294,7 +6312,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E40 = "","",C40/E40)</f>
         <v>5700</v>
       </c>
       <c r="G40" t="s">
@@ -6316,7 +6334,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(E41 = "","",C41/E41)</f>
         <v>2500</v>
       </c>
       <c r="G41" t="s">
@@ -6329,8 +6347,17 @@
       </c>
     </row>
     <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>370</v>
+      </c>
+      <c r="B42" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6600</v>
+      </c>
       <c r="F42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E42 = "","",C42/E42)</f>
         <v/>
       </c>
       <c r="J42" s="2"/>
@@ -6338,184 +6365,244 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="F43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C43" s="2">
+        <v>11800</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <f>IF(E43 = "","",C43/E43)</f>
+        <v>5900</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="F44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B44" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="2">
+        <v>19900</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <f>IF(E44 = "","",C44/E44)</f>
+        <v>9950</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="F45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7200</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <f>IF(E45 = "","",C45/E45)</f>
+        <v>3600</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="2">
+        <f>SUM(F43:F46)</f>
+        <v>37950</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="F46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B46" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="2">
+        <v>37000</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <f>IF(E46 = "","",C46/E46)</f>
+        <v>18500</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="F47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E47 = "","",C47/E47)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="F48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E48 = "","",C48/E48)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="6:11">
       <c r="F49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E49 = "","",C49/E49)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="6:11">
       <c r="F50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E50 = "","",C50/E50)</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="6:11">
       <c r="F51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E51 = "","",C51/E51)</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="6:11">
       <c r="F52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E52 = "","",C52/E52)</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="6:11">
       <c r="F53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E53 = "","",C53/E53)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="6:11">
       <c r="F54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E54 = "","",C54/E54)</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="6:11">
       <c r="F55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E55 = "","",C55/E55)</f>
         <v/>
       </c>
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="6:11">
       <c r="F56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E56 = "","",C56/E56)</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="6:11">
       <c r="F57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E57 = "","",C57/E57)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="6:11">
       <c r="F58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E58 = "","",C58/E58)</f>
         <v/>
       </c>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="6:11">
       <c r="F59" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E59 = "","",C59/E59)</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="6:11">
       <c r="F60" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E60 = "","",C60/E60)</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="6:11">
       <c r="F61" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E61 = "","",C61/E61)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="6:11">
       <c r="F62" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E62 = "","",C62/E62)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="6:11">
       <c r="F63" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E63 = "","",C63/E63)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="6:11">
       <c r="F64" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E64 = "","",C64/E64)</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="6:11">
       <c r="F65" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E65 = "","",C65/E65)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="6:11">
       <c r="F66" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E66 = "","",C66/E66)</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="6:11">
       <c r="F67" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E67 = "","",C67/E67)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="6:11">
       <c r="F68" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E68 = "","",C68/E68)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="6:11">
       <c r="F69" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E69 = "","",C69/E69)</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="6:11">
       <c r="F70" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E70 = "","",C70/E70)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="6:11">
       <c r="F71" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E71 = "","",C71/E71)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="6:11">
       <c r="F72" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E72 = "","",C72/E72)</f>
         <v/>
       </c>
       <c r="J72" s="2"/>
@@ -6523,169 +6610,169 @@
     </row>
     <row r="73" spans="6:11">
       <c r="F73" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E73 = "","",C73/E73)</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="6:11">
       <c r="F74" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E74 = "","",C74/E74)</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="6:11">
       <c r="F75" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E75 = "","",C75/E75)</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="6:11">
       <c r="F76" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(E76 = "","",C76/E76)</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="6:11">
       <c r="F77" s="2" t="str">
-        <f t="shared" ref="F77:F100" si="1">IF(E77 = "","",C77/E77)</f>
+        <f>IF(E77 = "","",C77/E77)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="6:11">
       <c r="F78" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E78 = "","",C78/E78)</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="6:11">
       <c r="F79" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E79 = "","",C79/E79)</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="6:11">
       <c r="F80" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E80 = "","",C80/E80)</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E81 = "","",C81/E81)</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E82 = "","",C82/E82)</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E83 = "","",C83/E83)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E84 = "","",C84/E84)</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E85 = "","",C85/E85)</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E86 = "","",C86/E86)</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E87 = "","",C87/E87)</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E88 = "","",C88/E88)</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E89 = "","",C89/E89)</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E90 = "","",C90/E90)</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E91 = "","",C91/E91)</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E92 = "","",C92/E92)</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E93 = "","",C93/E93)</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E94 = "","",C94/E94)</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E95 = "","",C95/E95)</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E96 = "","",C96/E96)</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E97 = "","",C97/E97)</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E98 = "","",C98/E98)</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E99 = "","",C99/E99)</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E100 = "","",C100/E100)</f>
         <v/>
       </c>
     </row>

--- a/account_book_RPA/1account_book.xlsx
+++ b/account_book_RPA/1account_book.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29113"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75EC445-8CD4-4BAA-AD96-8387DECF1B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5502089E-EF18-4A1A-B383-1F23E497F98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,7 @@
     <sheet name="Apr_25" sheetId="4" r:id="rId4"/>
     <sheet name="May_25" sheetId="6" r:id="rId5"/>
     <sheet name="Jun_25" sheetId="7" r:id="rId6"/>
+    <sheet name="Jul_25" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="486">
   <si>
     <t>Date</t>
   </si>
@@ -1148,6 +1149,15 @@
     <t>메가박스중앙(주)AK플라자지</t>
   </si>
   <si>
+    <t>6월 20일</t>
+  </si>
+  <si>
+    <t>송금</t>
+  </si>
+  <si>
+    <t>채연 정산</t>
+  </si>
+  <si>
     <t>6월 21일</t>
   </si>
   <si>
@@ -1164,6 +1174,327 @@
   </si>
   <si>
     <t>동두천솥뚜껑삼겹살 강남역</t>
+  </si>
+  <si>
+    <t>6월 23일</t>
+  </si>
+  <si>
+    <t>씨제이올리브영(주)수원AK타</t>
+  </si>
+  <si>
+    <t>세븐일레븐 수원로데오2호점</t>
+  </si>
+  <si>
+    <t>엽기떡볶이</t>
+  </si>
+  <si>
+    <t>6월 25일</t>
+  </si>
+  <si>
+    <t>스투씨</t>
+  </si>
+  <si>
+    <t>6월 27일</t>
+  </si>
+  <si>
+    <t>오쭈</t>
+  </si>
+  <si>
+    <t>놀숲 수원역점</t>
+  </si>
+  <si>
+    <t>6월 28일</t>
+  </si>
+  <si>
+    <t>주식회사 빅바이트컴퍼니 쉐</t>
+  </si>
+  <si>
+    <t>구슬스 홍대점</t>
+  </si>
+  <si>
+    <t>미니돌(minidoll)홍대점(주)</t>
+  </si>
+  <si>
+    <t>(주)모노맨션연남2호점</t>
+  </si>
+  <si>
+    <t>카카오프렌즈 플래그십스토</t>
+  </si>
+  <si>
+    <t>투썸 홍대걷고싶은거리</t>
+  </si>
+  <si>
+    <t>빠지 값: 제윤 포함</t>
+  </si>
+  <si>
+    <t>제윤 빠지 값</t>
+  </si>
+  <si>
+    <t>6월 29일</t>
+  </si>
+  <si>
+    <t>쿠팡</t>
+  </si>
+  <si>
+    <t>아이라인, 휴대폰 케이스, 필름</t>
+  </si>
+  <si>
+    <t>6월 30일</t>
+  </si>
+  <si>
+    <t>카미야</t>
+  </si>
+  <si>
+    <t>카츠</t>
+  </si>
+  <si>
+    <t>코칭 심리카페</t>
+  </si>
+  <si>
+    <t>카카오프렌즈 플래그십스토어</t>
+  </si>
+  <si>
+    <t>스폰지밥 키링</t>
+  </si>
+  <si>
+    <t>7월 2일</t>
+  </si>
+  <si>
+    <t>돈세이돈 수내점</t>
+  </si>
+  <si>
+    <t>폴라포</t>
+  </si>
+  <si>
+    <t>7월 4일</t>
+  </si>
+  <si>
+    <t>노티드 수원스타필드</t>
+  </si>
+  <si>
+    <t>주식회사 스타필드수원</t>
+  </si>
+  <si>
+    <t>등촌동샤브칼국수</t>
+  </si>
+  <si>
+    <t>7월 5일</t>
+  </si>
+  <si>
+    <t>코레일유통주식회사(수원역)</t>
+  </si>
+  <si>
+    <t>벌툰 수원역점</t>
+  </si>
+  <si>
+    <t>비에이치씨 수원역점 (BHC수</t>
+  </si>
+  <si>
+    <t>7월 7일</t>
+  </si>
+  <si>
+    <t>주식회사 오즈피씨카페리저브</t>
+  </si>
+  <si>
+    <t>근형이랑 피방</t>
+  </si>
+  <si>
+    <t>벌툰 강남역점</t>
+  </si>
+  <si>
+    <t>한국맥도날드(유) 강남2호점</t>
+  </si>
+  <si>
+    <t>7월 9일</t>
+  </si>
+  <si>
+    <t>금영벤딩(주)</t>
+  </si>
+  <si>
+    <t>깐부치킨 사당역점</t>
+  </si>
+  <si>
+    <t>제윤이랑 축구 후 치킨</t>
+  </si>
+  <si>
+    <t>제윤 축구 치킨 정산</t>
+  </si>
+  <si>
+    <t>7월 10일</t>
+  </si>
+  <si>
+    <t>씨유(CU)수내푸른마을점</t>
+  </si>
+  <si>
+    <t>커피</t>
+  </si>
+  <si>
+    <t>놀유니버스</t>
+  </si>
+  <si>
+    <t>롯데월드 티켓</t>
+  </si>
+  <si>
+    <t>7월 11일</t>
+  </si>
+  <si>
+    <t>피부과</t>
+  </si>
+  <si>
+    <t>호텔 값</t>
+  </si>
+  <si>
+    <t>7월 12일</t>
+  </si>
+  <si>
+    <t>백송이 전문점</t>
+  </si>
+  <si>
+    <t>호텔 앞 편의점</t>
+  </si>
+  <si>
+    <t>과자</t>
+  </si>
+  <si>
+    <t>배민</t>
+  </si>
+  <si>
+    <t>떡볶이</t>
+  </si>
+  <si>
+    <t>롯데리아 동수원점</t>
+  </si>
+  <si>
+    <t>7월 13일</t>
+  </si>
+  <si>
+    <t>보드게임</t>
+  </si>
+  <si>
+    <t>파&amp;피파스타하우스</t>
+  </si>
+  <si>
+    <t>예린이랑 논 날 정산</t>
+  </si>
+  <si>
+    <t>예린</t>
+  </si>
+  <si>
+    <t>로이드수원역점</t>
+  </si>
+  <si>
+    <t>반 정산 받음</t>
+  </si>
+  <si>
+    <t>씨제이올리브영(주)수원중앙</t>
+  </si>
+  <si>
+    <t>썬크림</t>
+  </si>
+  <si>
+    <t>채연 예린이랑 논날 정산</t>
+  </si>
+  <si>
+    <t>예린 논날 정산</t>
+  </si>
+  <si>
+    <t>7월 14일</t>
+  </si>
+  <si>
+    <t>지에스(GS)25 S홍대역사점</t>
+  </si>
+  <si>
+    <t>마이쮸 + 빼빼로</t>
+  </si>
+  <si>
+    <t>집사의하루 연남점</t>
+  </si>
+  <si>
+    <t>고양이 카페</t>
+  </si>
+  <si>
+    <t>인생네컷</t>
+  </si>
+  <si>
+    <t>부대옥</t>
+  </si>
+  <si>
+    <t>서울호떡 홍대2호 직영점</t>
+  </si>
+  <si>
+    <t>호떡</t>
+  </si>
+  <si>
+    <t>7월 15일</t>
+  </si>
+  <si>
+    <t>투루카</t>
+  </si>
+  <si>
+    <t>대여비+보험비</t>
+  </si>
+  <si>
+    <t>다이소 수내2호점</t>
+  </si>
+  <si>
+    <t>시간 연장</t>
+  </si>
+  <si>
+    <t>빠지 정산</t>
+  </si>
+  <si>
+    <t>7월 16일</t>
+  </si>
+  <si>
+    <t>새희망약국</t>
+  </si>
+  <si>
+    <t>구충제</t>
+  </si>
+  <si>
+    <t>지에스더프레시</t>
+  </si>
+  <si>
+    <t>마트 장본거</t>
+  </si>
+  <si>
+    <t>The dreamping</t>
+  </si>
+  <si>
+    <t>아쿠아 삭스</t>
+  </si>
+  <si>
+    <t>7월 17일</t>
+  </si>
+  <si>
+    <t>주행비</t>
+  </si>
+  <si>
+    <t>롯데월드</t>
+  </si>
+  <si>
+    <t>가방 보관</t>
+  </si>
+  <si>
+    <t>소떡</t>
+  </si>
+  <si>
+    <t>콜팝</t>
+  </si>
+  <si>
+    <t>포토랩플러스</t>
+  </si>
+  <si>
+    <t>택시비</t>
+  </si>
+  <si>
+    <t>7월 18일</t>
+  </si>
+  <si>
+    <t>제윤 빠지 정산</t>
+  </si>
+  <si>
+    <t>채연 빠지 정산</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1504,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₩-412]#,##0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,6 +1525,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1225,7 +1562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1248,6 +1585,8 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5591,10 +5930,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F8D891-58F5-4A8B-85BF-34143E46E1F3}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5670,7 +6009,7 @@
         <v>323</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f>IF(E3 = "","",C3/E3)</f>
+        <f t="shared" ref="F3:F66" si="0">IF(E3 = "","",C3/E3)</f>
         <v/>
       </c>
       <c r="H3" t="s">
@@ -5685,7 +6024,7 @@
         <v>-50000</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f>IF(E4 = "","",C4/E4)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H4" t="s">
@@ -5700,7 +6039,7 @@
         <v>11600</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>IF(E5 = "","",C5/E5)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5712,7 +6051,7 @@
         <v>-11100</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f>IF(E6 = "","",C6/E6)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5730,7 +6069,7 @@
         <v>329</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f>IF(E7 = "","",C7/E7)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" t="s">
@@ -5745,7 +6084,7 @@
         <v>11000</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f>IF(E8 = "","",C8/E8)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5757,7 +6096,7 @@
         <v>4000</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>IF(E9 = "","",C9/E9)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5772,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="2">
-        <f>IF(E10 = "","",C10/E10)</f>
+        <f t="shared" si="0"/>
         <v>4550</v>
       </c>
       <c r="G10" t="s">
@@ -5793,7 +6132,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="2">
-        <f>IF(E11 = "","",C11/E11)</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="G11" t="s">
@@ -5815,7 +6154,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="2">
-        <f>IF(E12 = "","",C12/E12)</f>
+        <f t="shared" si="0"/>
         <v>3250</v>
       </c>
       <c r="G12" t="s">
@@ -5838,7 +6177,7 @@
         <v>10000</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f>IF(E13 = "","",C13/E13)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5856,7 +6195,7 @@
         <v>188</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f>IF(E14 = "","",C14/E14)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5868,7 +6207,7 @@
         <v>1000</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f>IF(E15 = "","",C15/E15)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5880,7 +6219,7 @@
         <v>2000</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f>IF(E16 = "","",C16/E16)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5892,7 +6231,7 @@
         <v>2000</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f>IF(E17 = "","",C17/E17)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5907,7 +6246,7 @@
         <v>2800</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f>IF(E18 = "","",C18/E18)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -5922,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <f>IF(E19 = "","",C19/E19)</f>
+        <f t="shared" si="0"/>
         <v>-20000</v>
       </c>
       <c r="G19" t="s">
@@ -5940,7 +6279,7 @@
         <v>160000</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f>IF(E20 = "","",C20/E20)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H20" s="6"/>
@@ -5966,7 +6305,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="2">
-        <f>IF(E21 = "","",C21/E21)</f>
+        <f t="shared" si="0"/>
         <v>17750</v>
       </c>
     </row>
@@ -5978,12 +6317,12 @@
         <v>5000</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f>IF(E22 = "","",C22/E22)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L22" s="2">
-        <f>SUM(C2:C101)</f>
-        <v>441666</v>
+        <f>SUM(C2:C109)</f>
+        <v>725587</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5997,7 +6336,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="2">
-        <f>IF(E23 = "","",C23/E23)</f>
+        <f t="shared" si="0"/>
         <v>4600</v>
       </c>
       <c r="G23" t="s">
@@ -6018,7 +6357,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="2">
-        <f>IF(E24 = "","",C24/E24)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="H24" s="6"/>
@@ -6042,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="2">
-        <f>IF(E25 = "","",C25/E25)</f>
+        <f t="shared" si="0"/>
         <v>8250</v>
       </c>
       <c r="G25" t="s">
@@ -6061,7 +6400,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <f>IF(E26 = "","",C26/E26)</f>
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="G26" t="s">
@@ -6080,7 +6419,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="2" t="str">
-        <f>IF(E27 = "","",C27/E27)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J27" s="2">
@@ -6100,7 +6439,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <f>IF(E28 = "","",C28/E28)</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="G28" t="s">
@@ -6120,7 +6459,7 @@
         <v>15700</v>
       </c>
       <c r="F29" s="2" t="str">
-        <f>IF(E29 = "","",C29/E29)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6138,7 +6477,7 @@
         <v>358</v>
       </c>
       <c r="F30" s="2" t="str">
-        <f>IF(E30 = "","",C30/E30)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6153,7 +6492,7 @@
         <v>26000</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f>IF(E31 = "","",C31/E31)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6168,7 +6507,7 @@
         <v>86900</v>
       </c>
       <c r="F32" s="2" t="str">
-        <f>IF(E32 = "","",C32/E32)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6186,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="2">
-        <f>IF(E33 = "","",C33/E33)</f>
+        <f t="shared" si="0"/>
         <v>6450</v>
       </c>
       <c r="G33" t="s">
@@ -6204,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="2">
-        <f>IF(E34 = "","",C34/E34)</f>
+        <f t="shared" si="0"/>
         <v>23200</v>
       </c>
       <c r="G34" t="s">
@@ -6219,7 +6558,7 @@
         <v>23200</v>
       </c>
       <c r="F35" s="2" t="str">
-        <f>IF(E35 = "","",C35/E35)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -6237,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="2">
-        <f>IF(E36 = "","",C36/E36)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="G36" t="s">
@@ -6255,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="2">
-        <f>IF(E37 = "","",C37/E37)</f>
+        <f t="shared" si="0"/>
         <v>15500</v>
       </c>
       <c r="G37" t="s">
@@ -6273,7 +6612,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="2">
-        <f>IF(E38 = "","",C38/E38)</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="G38" t="s">
@@ -6291,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="2">
-        <f>IF(E39 = "","",C39/E39)</f>
+        <f t="shared" si="0"/>
         <v>4500</v>
       </c>
       <c r="G39" t="s">
@@ -6312,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="2">
-        <f>IF(E40 = "","",C40/E40)</f>
+        <f t="shared" si="0"/>
         <v>5700</v>
       </c>
       <c r="G40" t="s">
@@ -6334,7 +6673,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="2">
-        <f>IF(E41 = "","",C41/E41)</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="G41" t="s">
@@ -6354,307 +6693,573 @@
         <v>371</v>
       </c>
       <c r="C42" s="2">
+        <v>-70000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>373</v>
+      </c>
+      <c r="B43" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" s="2">
         <v>6600</v>
       </c>
-      <c r="F42" s="2" t="str">
-        <f>IF(E42 = "","",C42/E42)</f>
-        <v/>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="B43" t="s">
-        <v>372</v>
-      </c>
-      <c r="C43" s="2">
-        <v>11800</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43" s="2">
-        <f>IF(E43 = "","",C43/E43)</f>
-        <v>5900</v>
-      </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12">
       <c r="B44" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2">
-        <v>19900</v>
+        <v>11800</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" s="2">
-        <f>IF(E44 = "","",C44/E44)</f>
-        <v>9950</v>
+        <f t="shared" si="0"/>
+        <v>5900</v>
       </c>
       <c r="G44" t="s">
         <v>55</v>
-      </c>
-      <c r="J44" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="B45" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2">
-        <v>7200</v>
+        <v>19900</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" s="2">
-        <f>IF(E45 = "","",C45/E45)</f>
-        <v>3600</v>
+        <f t="shared" si="0"/>
+        <v>9950</v>
       </c>
       <c r="G45" t="s">
         <v>55</v>
       </c>
-      <c r="J45" s="2">
-        <f>SUM(F43:F46)</f>
-        <v>37950</v>
+      <c r="J45" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="B46" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2">
+        <v>7200</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="2">
+        <f>SUM(F44:F47)</f>
+        <v>37950</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" t="s">
+        <v>378</v>
+      </c>
+      <c r="C47" s="2">
         <v>37000</v>
       </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" s="2">
-        <f>IF(E46 = "","",C46/E46)</f>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
         <v>18500</v>
       </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="7" t="b">
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="F47" s="2" t="str">
-        <f>IF(E47 = "","",C47/E47)</f>
-        <v/>
-      </c>
-    </row>
     <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" t="s">
+        <v>371</v>
+      </c>
+      <c r="C48" s="2">
+        <v>-30000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>372</v>
+      </c>
       <c r="F48" s="2" t="str">
-        <f>IF(E48 = "","",C48/E48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="6:11">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" t="s">
+        <v>380</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20500</v>
+      </c>
       <c r="F49" s="2" t="str">
-        <f>IF(E49 = "","",C49/E49)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="6:11">
-      <c r="F50" s="2" t="str">
-        <f>IF(E50 = "","",C50/E50)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="6:11">
-      <c r="F51" s="2" t="str">
-        <f>IF(E51 = "","",C51/E51)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="6:11">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="B50" t="s">
+        <v>364</v>
+      </c>
+      <c r="C50" s="2">
+        <v>14400</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="B51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51" s="2">
+        <v>14400</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1700</v>
+      </c>
       <c r="F52" s="2" t="str">
-        <f>IF(E52 = "","",C52/E52)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="6:11">
-      <c r="F53" s="2" t="str">
-        <f>IF(E53 = "","",C53/E53)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="6:11">
-      <c r="F54" s="2" t="str">
-        <f>IF(E54 = "","",C54/E54)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="6:11">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="B53" t="s">
+        <v>354</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54" t="s">
+        <v>382</v>
+      </c>
+      <c r="C54" s="2">
+        <v>15700</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>383</v>
+      </c>
+      <c r="B55" t="s">
+        <v>371</v>
+      </c>
+      <c r="C55" s="2">
+        <v>-15000</v>
+      </c>
+      <c r="D55" t="s">
+        <v>372</v>
+      </c>
       <c r="F55" s="2" t="str">
-        <f>IF(E55 = "","",C55/E55)</f>
-        <v/>
-      </c>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="6:11">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D56" t="s">
+        <v>384</v>
+      </c>
       <c r="F56" s="2" t="str">
-        <f>IF(E56 = "","",C56/E56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="6:11">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>385</v>
+      </c>
+      <c r="B57" t="s">
+        <v>374</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10000</v>
+      </c>
       <c r="F57" s="2" t="str">
-        <f>IF(E57 = "","",C57/E57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="6:11">
-      <c r="F58" s="2" t="str">
-        <f>IF(E58 = "","",C58/E58)</f>
-        <v/>
-      </c>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="6:11">
-      <c r="F59" s="2" t="str">
-        <f>IF(E59 = "","",C59/E59)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="6:11">
-      <c r="F60" s="2" t="str">
-        <f>IF(E60 = "","",C60/E60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="6:11">
-      <c r="F61" s="2" t="str">
-        <f>IF(E61 = "","",C61/E61)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="6:11">
-      <c r="F62" s="2" t="str">
-        <f>IF(E62 = "","",C62/E62)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="6:11">
-      <c r="F63" s="2" t="str">
-        <f>IF(E63 = "","",C63/E63)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="6:11">
-      <c r="F64" s="2" t="str">
-        <f>IF(E64 = "","",C64/E64)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="6:11">
-      <c r="F65" s="2" t="str">
-        <f>IF(E65 = "","",C65/E65)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="6:11">
-      <c r="F66" s="2" t="str">
-        <f>IF(E66 = "","",C66/E66)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="6:11">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58" t="s">
+        <v>386</v>
+      </c>
+      <c r="C58" s="2">
+        <v>39000</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="2">
+        <v>13500</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" t="s">
+        <v>387</v>
+      </c>
+      <c r="C60" s="2">
+        <v>13200</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>388</v>
+      </c>
+      <c r="B61" t="s">
+        <v>389</v>
+      </c>
+      <c r="C61" s="2">
+        <v>34300</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>17150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62" t="s">
+        <v>390</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4800</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63" t="s">
+        <v>391</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64" t="s">
+        <v>392</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65" t="s">
+        <v>393</v>
+      </c>
+      <c r="C65" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="B66" t="s">
+        <v>394</v>
+      </c>
+      <c r="C66" s="2">
+        <v>16800</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="B67" t="s">
+        <v>371</v>
+      </c>
+      <c r="C67" s="2">
+        <v>-39999</v>
+      </c>
+      <c r="D67" t="s">
+        <v>372</v>
+      </c>
       <c r="F67" s="2" t="str">
-        <f>IF(E67 = "","",C67/E67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="6:11">
+        <f t="shared" ref="F67:F74" si="1">IF(E67 = "","",C67/E67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" s="2">
+        <v>220000</v>
+      </c>
+      <c r="D68" t="s">
+        <v>395</v>
+      </c>
       <c r="F68" s="2" t="str">
-        <f>IF(E68 = "","",C68/E68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="6:11">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69" t="s">
+        <v>371</v>
+      </c>
+      <c r="C69" s="2">
+        <v>-110000</v>
+      </c>
+      <c r="D69" t="s">
+        <v>396</v>
+      </c>
       <c r="F69" s="2" t="str">
-        <f>IF(E69 = "","",C69/E69)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="6:11">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>397</v>
+      </c>
+      <c r="B70" t="s">
+        <v>398</v>
+      </c>
+      <c r="C70" s="2">
+        <v>6620</v>
+      </c>
+      <c r="D70" t="s">
+        <v>399</v>
+      </c>
       <c r="F70" s="2" t="str">
-        <f>IF(E70 = "","",C70/E70)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="6:11">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>400</v>
+      </c>
+      <c r="B71" t="s">
+        <v>401</v>
+      </c>
+      <c r="C71" s="2">
+        <v>19000</v>
+      </c>
+      <c r="D71" t="s">
+        <v>402</v>
+      </c>
       <c r="F71" s="2" t="str">
-        <f>IF(E71 = "","",C71/E71)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="6:11">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="B72" t="s">
+        <v>403</v>
+      </c>
+      <c r="C72" s="2">
+        <v>53000</v>
+      </c>
       <c r="F72" s="2" t="str">
-        <f>IF(E72 = "","",C72/E72)</f>
-        <v/>
-      </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="6:11">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="B73" t="s">
+        <v>404</v>
+      </c>
+      <c r="C73" s="2">
+        <v>14000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>405</v>
+      </c>
       <c r="F73" s="2" t="str">
-        <f>IF(E73 = "","",C73/E73)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="6:11">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="B74" t="s">
+        <v>371</v>
+      </c>
+      <c r="C74" s="2">
+        <v>-19000</v>
+      </c>
+      <c r="D74" t="s">
+        <v>372</v>
+      </c>
       <c r="F74" s="2" t="str">
-        <f>IF(E74 = "","",C74/E74)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="6:11">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="F75" s="2" t="str">
         <f>IF(E75 = "","",C75/E75)</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="6:11">
+    <row r="76" spans="1:11">
       <c r="F76" s="2" t="str">
         <f>IF(E76 = "","",C76/E76)</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="6:11">
+    <row r="77" spans="1:11">
       <c r="F77" s="2" t="str">
         <f>IF(E77 = "","",C77/E77)</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="6:11">
+    <row r="78" spans="1:11">
       <c r="F78" s="2" t="str">
         <f>IF(E78 = "","",C78/E78)</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="6:11">
+    <row r="79" spans="1:11">
       <c r="F79" s="2" t="str">
         <f>IF(E79 = "","",C79/E79)</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="6:11">
+    <row r="80" spans="1:11">
       <c r="F80" s="2" t="str">
         <f>IF(E80 = "","",C80/E80)</f>
         <v/>
       </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="2" t="str">
@@ -6773,6 +7378,1318 @@
     <row r="100" spans="6:6">
       <c r="F100" s="2" t="str">
         <f>IF(E100 = "","",C100/E100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="2" t="str">
+        <f>IF(E101 = "","",C101/E101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="2" t="str">
+        <f>IF(E102 = "","",C102/E102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="2" t="str">
+        <f>IF(E103 = "","",C103/E103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="2" t="str">
+        <f>IF(E104 = "","",C104/E104)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="2" t="str">
+        <f>IF(E105 = "","",C105/E105)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="2" t="str">
+        <f>IF(E106 = "","",C106/E106)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="2" t="str">
+        <f>IF(E107 = "","",C107/E107)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="2" t="str">
+        <f>IF(E108 = "","",C108/E108)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AA1A6A-A483-4D31-BD5F-950196B18EA7}">
+  <dimension ref="A1:J111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4600</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f t="shared" ref="F2:F68" si="0">IF(E2 = "","",C2/E2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18500</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>9250</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5600</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-20002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3800</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="2">
+        <v>26200</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="2">
+        <v>26000</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-25000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="2">
+        <v>25200</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10700</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-10000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" t="s">
+        <v>423</v>
+      </c>
+      <c r="C17" s="2">
+        <v>900</v>
+      </c>
+      <c r="D17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="2">
+        <v>900</v>
+      </c>
+      <c r="D18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C19" s="2">
+        <v>56800</v>
+      </c>
+      <c r="D19" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-29000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>429</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30900</v>
+      </c>
+      <c r="D22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="2">
+        <v>88000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>433</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>434</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B25" t="s">
+        <v>436</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D26" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>439</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D27" t="s">
+        <v>440</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>441</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4900</v>
+      </c>
+      <c r="D28" t="s">
+        <v>304</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-15000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" t="s">
+        <v>398</v>
+      </c>
+      <c r="C30" s="2">
+        <v>47680</v>
+      </c>
+      <c r="D30" t="s">
+        <v>443</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="2">
+        <v>24000</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>1666.6666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" s="2">
+        <v>27700</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>9233.3333333333339</v>
+      </c>
+      <c r="H33" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="H34" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" t="s">
+        <v>447</v>
+      </c>
+      <c r="C35" s="2">
+        <v>169800</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>84900</v>
+      </c>
+      <c r="H35" s="2">
+        <f>SUM(F31:F34)</f>
+        <v>19566.666666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="B36" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" s="2">
+        <v>17900</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" t="s">
+        <v>371</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-60000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>451</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-15000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>452</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>453</v>
+      </c>
+      <c r="B39" t="s">
+        <v>454</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>457</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" t="s">
+        <v>458</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" t="s">
+        <v>459</v>
+      </c>
+      <c r="C42" s="2">
+        <v>24000</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D43" t="s">
+        <v>461</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>462</v>
+      </c>
+      <c r="B44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" s="2">
+        <v>60020</v>
+      </c>
+      <c r="D44" t="s">
+        <v>464</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="B45" t="s">
+        <v>465</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" t="s">
+        <v>463</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3180</v>
+      </c>
+      <c r="D46" t="s">
+        <v>466</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="H46" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>468</v>
+      </c>
+      <c r="B47" t="s">
+        <v>469</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>470</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H47" t="s">
+        <v>254</v>
+      </c>
+      <c r="I47" t="s">
+        <v>446</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" t="s">
+        <v>471</v>
+      </c>
+      <c r="C48" s="2">
+        <v>33730</v>
+      </c>
+      <c r="D48" t="s">
+        <v>472</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>8432.5</v>
+      </c>
+      <c r="H48" s="2">
+        <f>SUM(F54,F50,F51,F49,F48,F46,F44)-5200</f>
+        <v>34927.5</v>
+      </c>
+      <c r="I48" s="2">
+        <f>SUM(F54,F50,F51,F49,F48,F46,F44)</f>
+        <v>40127.5</v>
+      </c>
+      <c r="J48" s="2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" t="s">
+        <v>473</v>
+      </c>
+      <c r="C49" s="2">
+        <v>28000</v>
+      </c>
+      <c r="D49" t="s">
+        <v>474</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="H49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>475</v>
+      </c>
+      <c r="B50" t="s">
+        <v>463</v>
+      </c>
+      <c r="C50" s="2">
+        <v>20580</v>
+      </c>
+      <c r="D50" t="s">
+        <v>476</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" t="s">
+        <v>477</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>478</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" t="s">
+        <v>477</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D52" t="s">
+        <v>479</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" t="s">
+        <v>477</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D53" t="s">
+        <v>480</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="B54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" t="s">
+        <v>482</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5200</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>483</v>
+      </c>
+      <c r="B56" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" s="2">
+        <v>-34000</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="2">
+        <v>-40000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>485</v>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="F58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="F59" s="2" t="str">
+        <f>IF(E59 = "","",C37/E59)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="F60" s="2" t="str">
+        <f>IF(E60 = "","",C38/E60)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="C61" s="2">
+        <f>SUM(C2:C57)</f>
+        <v>660488</v>
+      </c>
+      <c r="F61" s="2" t="str">
+        <f>IF(E61 = "","",C20/E61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="F62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="F63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="2" t="str">
+        <f>IF(E77 = "","",C2/E77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="2" t="str">
+        <f>IF(E78 = "","",C4/E78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="2" t="str">
+        <f>IF(E79 = "","",C5/E79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="2" t="str">
+        <f>IF(E80 = "","",C6/E80)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="2" t="str">
+        <f>IF(E81 = "","",C8/E81)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="2" t="str">
+        <f>IF(E82 = "","",C9/E82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="2" t="str">
+        <f>IF(E83 = "","",C10/E83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="2" t="str">
+        <f>IF(E84 = "","",C12/E84)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="2" t="str">
+        <f>IF(E85 = "","",C13/E85)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="2" t="str">
+        <f>IF(E86 = "","",C14/E86)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="2" t="str">
+        <f>IF(E87 = "","",C15/E87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="2" t="str">
+        <f>IF(E88 = "","",C17/E88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="2" t="str">
+        <f>IF(E89 = "","",C18/E89)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="2" t="str">
+        <f>IF(E90 = "","",C19/E90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="2" t="str">
+        <f>IF(E91 = "","",C21/E91)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="2" t="str">
+        <f>IF(E92 = "","",C23/E92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="2" t="str">
+        <f>IF(E93 = "","",C25/E93)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="2" t="str">
+        <f>IF(E94 = "","",C26/E94)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="2" t="str">
+        <f>IF(E95 = "","",C28/E95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="2" t="str">
+        <f>IF(E96 = "","",C30/E96)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="2" t="str">
+        <f>IF(E97 = "","",C31/E97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="2" t="str">
+        <f>IF(E98 = "","",C32/E98)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="2" t="str">
+        <f>IF(E99 = "","",C33/E99)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="2" t="str">
+        <f>IF(E100 = "","",C34/E100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="2" t="str">
+        <f>IF(E101 = "","",C35/E101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="2" t="str">
+        <f>IF(E102 = "","",C36/E102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="2" t="str">
+        <f>IF(E103 = "","",C39/E103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="2" t="str">
+        <f>IF(E104 = "","",C40/E104)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="2" t="str">
+        <f>IF(E105 = "","",C41/E105)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="2" t="str">
+        <f>IF(E106 = "","",C42/E106)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="2" t="str">
+        <f>IF(E107 = "","",C43/E107)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="2" t="str">
+        <f>IF(E108 = "","",C44/E108)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="2" t="str">
+        <f>IF(E109 = "","",C45/E109)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="2" t="str">
+        <f>IF(E110 = "","",C46/E110)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="2" t="str">
+        <f>IF(E111 = "","",C47/E111)</f>
         <v/>
       </c>
     </row>
